--- a/salary/Mangrove Salary Aug-24.xlsx
+++ b/salary/Mangrove Salary Aug-24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\salary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\salary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE60DC1-2D31-4347-8C8E-0FE37CD3E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103DF155-6AC5-4312-BBB3-56632E0D282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,6 +520,9 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,9 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1715,7 +1715,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,8 +1819,8 @@
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,43 +1832,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -2173,12 +2173,12 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="27">
         <f>SUM(E4:E10)</f>
         <v>0</v>
@@ -2226,24 +2226,24 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="46"/>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
@@ -2426,46 +2426,46 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="49"/>
       <c r="P18" s="38">
         <f>SUM(P14:P17)</f>
         <v>31000</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
       <c r="P19" s="39">
         <f>P11+P18</f>
         <v>39000</v>
